--- a/KenPortfolio/RealEstateHelper/firstStep/RealEstateSteps.xlsx
+++ b/KenPortfolio/RealEstateHelper/firstStep/RealEstateSteps.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Get Pre-Approved for a Mortgage</t>
   </si>
@@ -64,13 +64,16 @@
   </si>
   <si>
     <t>It can take a couple of days for everything to be settled. Once everything is settled, though, move in and start making it your home!</t>
+  </si>
+  <si>
+    <t>Steps to Buying a Home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +105,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Gill Sans Ultra Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Elephant"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -133,6 +160,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -153,15 +192,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>466790</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>428717</xdr:rowOff>
+      <xdr:colOff>476315</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>504917</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -184,7 +223,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="9525" y="76200"/>
           <a:ext cx="466790" cy="657317"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -197,15 +236,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>505029</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>419362</xdr:rowOff>
+      <xdr:colOff>514554</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>476512</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -228,7 +267,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="695325"/>
+          <a:off x="9525" y="1038225"/>
           <a:ext cx="505029" cy="647962"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -241,15 +280,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>457385</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76462</xdr:rowOff>
+      <xdr:colOff>485960</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>476512</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -272,7 +311,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2085975"/>
+          <a:off x="28575" y="3000375"/>
           <a:ext cx="457385" cy="647962"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -285,15 +324,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>428798</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66933</xdr:rowOff>
+      <xdr:colOff>447848</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>457458</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -316,7 +355,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2781300"/>
+          <a:off x="19050" y="3971925"/>
           <a:ext cx="428798" cy="638433"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -329,15 +368,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>438327</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>600318</xdr:rowOff>
+      <xdr:colOff>485952</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>524118</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -360,7 +399,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3476625"/>
+          <a:off x="47625" y="5057775"/>
           <a:ext cx="438327" cy="600318"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -373,15 +412,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>476443</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66933</xdr:rowOff>
+      <xdr:colOff>485968</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>486033</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -404,7 +443,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4171950"/>
+          <a:off x="9525" y="6105525"/>
           <a:ext cx="476443" cy="638433"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -417,15 +456,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>457385</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38346</xdr:rowOff>
+      <xdr:colOff>476435</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>466971</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -448,7 +487,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4867275"/>
+          <a:off x="19050" y="7096125"/>
           <a:ext cx="457385" cy="609846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -461,15 +500,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>524087</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47875</xdr:rowOff>
+      <xdr:colOff>543137</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>476500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -492,7 +531,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1390650"/>
+          <a:off x="19050" y="2047875"/>
           <a:ext cx="524087" cy="619375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -792,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K19"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:K12"/>
+      <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,65 +842,63 @@
     <col min="1" max="1" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -873,9 +910,9 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -887,65 +924,63 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -957,133 +992,291 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="2:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B7:K7"/>
+  <mergeCells count="28">
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="B30:K30"/>
     <mergeCell ref="B9:K9"/>
     <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B20:K20"/>
     <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B10:K10"/>
     <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A1:K3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/KenPortfolio/RealEstateHelper/firstStep/RealEstateSteps.xlsx
+++ b/KenPortfolio/RealEstateHelper/firstStep/RealEstateSteps.xlsx
@@ -73,17 +73,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -150,27 +141,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -831,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K3"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,412 +831,376 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="25">
     <mergeCell ref="B23:K23"/>
     <mergeCell ref="B26:K26"/>
     <mergeCell ref="A7:K7"/>
@@ -1260,9 +1212,6 @@
     <mergeCell ref="A25:K25"/>
     <mergeCell ref="B24:K24"/>
     <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="B30:K30"/>
     <mergeCell ref="B9:K9"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B14:K14"/>
@@ -1279,7 +1228,7 @@
     <mergeCell ref="A1:K3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
